--- a/Experimentos/Exp de Gabor/Integracion de la informacion/ParametrosAyBtest.xlsx
+++ b/Experimentos/Exp de Gabor/Integracion de la informacion/ParametrosAyBtest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UdeSA\Desktop\Antonella\Doctorado (1)\Exp de Gabor\Exp de Gabor\Integracion de la informacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Antonella\Experimentos\Exp de Gabor\Integracion de la informacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -374,7 +374,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
